--- a/scripts/templates/cdisc_crf_specializations_latest_template.xlsx
+++ b/scripts/templates/cdisc_crf_specializations_latest_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\scripts\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696480D8-FAC0-44F4-AD30-2768B4A98291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC16751-78E1-4F3B-B055-E779D3E5D3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>package_date</t>
   </si>
@@ -94,16 +94,10 @@
     <t>standard_end_version</t>
   </si>
   <si>
-    <t>collection_group_id</t>
-  </si>
-  <si>
     <t>implementation_option</t>
   </si>
   <si>
     <t>scenario</t>
-  </si>
-  <si>
-    <t>collection_item</t>
   </si>
   <si>
     <t>variable_name</t>
@@ -863,7 +857,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -874,30 +868,30 @@
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -906,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="26"/>
     </row>
@@ -916,17 +910,17 @@
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="26"/>
     </row>
@@ -936,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="26"/>
     </row>
@@ -946,7 +940,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="26"/>
     </row>
@@ -956,47 +950,47 @@
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" s="26"/>
     </row>
@@ -1006,31 +1000,31 @@
         <v>4</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="D15" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="30"/>
     </row>
@@ -1040,47 +1034,47 @@
         <v>5</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D21" s="30"/>
     </row>
@@ -1090,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D22" s="30"/>
     </row>
@@ -1100,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="30"/>
     </row>
@@ -1110,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="30"/>
     </row>
@@ -1120,37 +1114,37 @@
         <v>11</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" s="29"/>
     </row>
@@ -1160,10 +1154,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1172,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" s="34"/>
     </row>
@@ -1182,83 +1176,83 @@
         <v>8</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="29"/>
     </row>
@@ -1349,7 +1343,7 @@
   <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1400,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>13</v>
@@ -1412,40 +1406,40 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>12</v>
@@ -1460,13 +1454,13 @@
         <v>11</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>6</v>
@@ -1478,25 +1472,25 @@
         <v>8</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/templates/cdisc_crf_specializations_latest_template.xlsx
+++ b/scripts/templates/cdisc_crf_specializations_latest_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\scripts\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC16751-78E1-4F3B-B055-E779D3E5D3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC91822-2952-4AEF-9A8F-389971D5C4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,28 +22,6 @@
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -616,22 +594,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>114299</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>51234</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>493686</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366E08C5-2525-CD54-7295-A67F10EB6822}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41164FD-D8A1-E9A3-7BB5-953CB0A20CCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -640,15 +618,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8267700" y="114300"/>
-          <a:ext cx="8928534" cy="5238750"/>
+          <a:off x="8115299" y="76200"/>
+          <a:ext cx="8761387" cy="5143500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -658,70 +642,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -840,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0398605A-E9D1-4A19-B8AC-9873CF0DB5C1}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -851,22 +771,19 @@
     <col min="1" max="1" width="16" style="18" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="18" customWidth="1"/>
     <col min="3" max="3" width="61.42578125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="19" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="19" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="G1" s="12" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -880,7 +797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>61</v>
       </c>
@@ -894,7 +811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -904,7 +821,7 @@
       </c>
       <c r="D4" s="26"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -914,7 +831,7 @@
       </c>
       <c r="D5" s="26"/>
     </row>
-    <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
       <c r="B6" s="5" t="s">
         <v>29</v>
@@ -924,7 +841,7 @@
       </c>
       <c r="D6" s="26"/>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -934,7 +851,7 @@
       </c>
       <c r="D7" s="26"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
       <c r="B8" s="5" t="s">
         <v>14</v>
@@ -944,7 +861,7 @@
       </c>
       <c r="D8" s="26"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>2</v>
@@ -954,7 +871,7 @@
       </c>
       <c r="D9" s="26"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>15</v>
@@ -964,7 +881,7 @@
       </c>
       <c r="D10" s="26"/>
     </row>
-    <row r="11" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="5" t="s">
         <v>16</v>
@@ -974,7 +891,7 @@
       </c>
       <c r="D11" s="26"/>
     </row>
-    <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="5" t="s">
         <v>30</v>
@@ -984,7 +901,7 @@
       </c>
       <c r="D12" s="26"/>
     </row>
-    <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>74</v>
@@ -994,7 +911,7 @@
       </c>
       <c r="D13" s="26"/>
     </row>
-    <row r="14" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
       <c r="B14" s="6" t="s">
         <v>4</v>
@@ -1004,7 +921,7 @@
       </c>
       <c r="D14" s="27"/>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>76</v>
       </c>
@@ -1018,7 +935,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
         <v>47</v>
@@ -1343,12 +1260,12 @@
   <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="3" customWidth="1"/>
